--- a/publipostage/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
+++ b/publipostage/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT03322319</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>acTive scrEening of cArdiac aMyloidosis in the Caribbean's</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -521,32 +531,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT02968875</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Alzheimer's Disease and Physiological, Cognitive Function and BDNF Levels of Plasma Adaptation After Exercise Training</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>MARAE</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -558,32 +573,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02912546</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Évaluation en IRM (séquence ASL) de la Variation de Perfusion cérébrale liée à la Position Corporelle.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>PerfIRMAVC</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -595,32 +615,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT03427190</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Assessment of Preventive Efficacy of an Algorithm Taking Place After Suicide Attempts Among Attempters Admitted to Hospital in the French Overseas Territories</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>APSOM</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -632,32 +657,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT04605250</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Respiratory Variability for Respiratory Monitoring During the Postoperative Recovery Period</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>VariaRessPi</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -669,32 +699,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT04413890</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Administration of Prostaglandin Gel for Cervical Priming During Induction of Labour Every 12 Hours Versus 24 Hours: a Randomized Superiority Controlled Trial</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>GELFREQ</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -706,32 +741,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT05564546</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Impact of Hydrogen Sulfide on Lung Health: Study of Chronic Exposure of the Population Living on the Atlantic Coast and on the Caribbean Coast, in Martinique, During the Stranding Period and Outside the Stranding Period of Sargassum Seaweeds</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>SÉSAR</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
+++ b/publipostage/0376kfa34/liste_essais_cliniques_identifies_0376kfa34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,6 +621,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -648,6 +668,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -690,6 +715,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -732,6 +762,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -773,6 +808,11 @@
       </c>
       <c r="J8" t="b">
         <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
   </sheetData>
